--- a/biology/Zoologie/Arawacus_aetolus/Arawacus_aetolus.xlsx
+++ b/biology/Zoologie/Arawacus_aetolus/Arawacus_aetolus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Arawacus aetolus est une espèce d'insectes lépidoptères - ou papillons de la famille des Lycaenidae, sous-famille des Theclinae, tribu des Eumaeini, du groupe du Thereus et du genre Arawacus.
 </t>
@@ -511,15 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par l'entomologiste suisse Johann Heinrich Sulzer en 1776, sous le nom initial de Papilio aetolus Sulzer, 1776[1].
-Synonymie
-Papilio aetolus (Sulzer, 1776)
-Papilio linus (Fabricius, 1776) [2]
-Papilio amelia (Herbst, 1804)
-Noms vernaculaires
-Arawacus aetolus se nomme Aetolus Stripestreak en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par l'entomologiste suisse Johann Heinrich Sulzer en 1776, sous le nom initial de Papilio aetolus Sulzer, 1776.
 </t>
         </is>
       </c>
@@ -545,10 +553,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Papilio aetolus (Sulzer, 1776)
+Papilio linus (Fabricius, 1776) 
+Papilio amelia (Herbst, 1804)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arawacus aetolus se nomme Aetolus Stripestreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce papillon d'une envergure d'environ 27 mm possède une fine queue à chaque aile postérieure. Le dessus est blanc bandé de marron clair avec chez le mâle une grosse tache androconiale marron aux antérieures.
 Le revers est blanc rayé de marron et d'une ligne submarginale orange.
@@ -556,63 +641,137 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Arawacus_aetolus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Arawacus_aetolus</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Sud, en Colombie, au Vénézuela, à Trinité-et-Tobago, en Bolivie, au Surinam et en Guyane[1].
-Biotope
-Il réside en bord de route et lisière de forêt.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Sud, en Colombie, au Vénézuela, à Trinité-et-Tobago, en Bolivie, au Surinam et en Guyane.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside en bord de route et lisière de forêt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arawacus_aetolus</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Arawacus aetolus, sur Wikimedia CommonsArawacus aetolus, sur Wikispecies
 </t>
